--- a/biology/Médecine/Chlamydia_pneumoniae/Chlamydia_pneumoniae.xlsx
+++ b/biology/Médecine/Chlamydia_pneumoniae/Chlamydia_pneumoniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlamydia pneumoniae est une espèce de bactéries de la famille des Chlamydiaceae [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlamydia pneumoniae est une espèce de bactéries de la famille des Chlamydiaceae .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette bactérie est responsable de pneumopathies atypiques communautaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette bactérie est responsable de pneumopathies atypiques communautaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses recherches sont en cours pour évaluer son rôle dans l'athérosclérose[4]. D'autre part, la bactérie jouerait un rôle important dans l'exacerbation de l'asthme[5]. Elle est trouvée chez près de 60 % des enfants asthmatiques de 5 à 15 ans, et il y aurait un lien direct entre l'importance de la réaction immunitaire contre chlamydophila pneumoniae et la fréquence des crises[3]. Il est remarqué que, in vitro, les cellules immunitaires humaines infectées par chlamydophila pneumoniae libèrent les mêmes substances que les cellules impliquées dans l'asthme[2]. Cependant, des chercheurs estiment que, parallèlement à la pollution atmosphérique, cette bactérie pourrait être à l'origine de la forte recrudescence de l'asthme ces dernières années.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses recherches sont en cours pour évaluer son rôle dans l'athérosclérose. D'autre part, la bactérie jouerait un rôle important dans l'exacerbation de l'asthme. Elle est trouvée chez près de 60 % des enfants asthmatiques de 5 à 15 ans, et il y aurait un lien direct entre l'importance de la réaction immunitaire contre chlamydophila pneumoniae et la fréquence des crises. Il est remarqué que, in vitro, les cellules immunitaires humaines infectées par chlamydophila pneumoniae libèrent les mêmes substances que les cellules impliquées dans l'asthme. Cependant, des chercheurs estiment que, parallèlement à la pollution atmosphérique, cette bactérie pourrait être à l'origine de la forte recrudescence de l'asthme ces dernières années.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 décembre 2019)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 décembre 2019) :
 non-classé Chlamydia pneumoniae AR39
 non-classé Chlamydia pneumoniae B21
 non-classé Chlamydia pneumoniae CWL029
